--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:31:57+00:00</t>
+    <t>2023-03-19T13:34:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:34:55+00:00</t>
+    <t>2023-03-19T13:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:45:53+00:00</t>
+    <t>2023-03-19T13:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:54:37+00:00</t>
+    <t>2023-03-19T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:59:04+00:00</t>
+    <t>2023-03-19T14:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:12:08+00:00</t>
+    <t>2023-03-19T14:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:24:01+00:00</t>
+    <t>2023-03-19T14:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:30:17+00:00</t>
+    <t>2023-03-19T14:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:44:32+00:00</t>
+    <t>2023-03-19T15:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:09:40+00:00</t>
+    <t>2023-03-19T15:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-PDSmIsArchived.xlsx
+++ b/ig/main/StructureDefinition-PDSmIsArchived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:54:08+00:00</t>
+    <t>2023-03-19T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
